--- a/src/main/resources/data/raw data/2023/동작구/공원녹지과/공원녹지과.xlsx
+++ b/src/main/resources/data/raw data/2023/동작구/공원녹지과/공원녹지과.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JavaProject\work\FreeMeal\src\main\resources\data\raw data\2023\동작구\공원녹지과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\sts-4.23.1.RELEASE\work\FreeMeal\src\main\resources\data\raw data\2023\동작구\공원녹지과\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE01FCB8-6CED-47B2-99EE-D1D0A1C9E7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21F8A2F-A7BD-4BB8-B03D-1B4D2122A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF980EA8-B643-4F45-B5DB-9806E1F86227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="11" xr2:uid="{DF980EA8-B643-4F45-B5DB-9806E1F86227}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0_업무추진비_사용내역_2023_12월_" sheetId="2" r:id="rId1"/>
@@ -28,31 +28,20 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">sheet0_업무추진비_사용내역_2023_12월_!$A$1:$H$19</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">sheet0_업무추진비_사용내역_2023_12월_!$A$1:$H$19</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">sheet0_업무추진비사용내역_2023_10월_!$A$1:$H$7</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">sheet0_업무추진비사용내역_2023_10월_!$A$1:$H$7</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">sheet0_업무추진비사용내역_2023_11월_!$A$1:$H$15</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">sheet0_업무추진비사용내역_2023_11월_!$A$1:$H$15</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">sheet0_업무추진비사용내역_2023_1월_!$A$1:$H$17</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">sheet0_업무추진비사용내역_2023_1월_!$A$1:$H$17</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">sheet0_업무추진비사용내역_2023_2월_!$A$1:$H$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">sheet0_업무추진비사용내역_2023_2월_!$A$1:$H$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">sheet0_업무추진비사용내역_2023_3월_!$A$1:$H$10</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">sheet0_업무추진비사용내역_2023_3월_!$A$1:$H$10</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">sheet0_업무추진비사용내역_2023_4월_!$A$1:$H$13</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">sheet0_업무추진비사용내역_2023_4월_!$A$1:$H$13</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">sheet0_업무추진비사용내역_2023_5월_!$A$1:$H$12</definedName>
     <definedName name="ExternalData_1" localSheetId="7" hidden="1">sheet0_업무추진비사용내역_2023_5월_!$A$1:$H$12</definedName>
     <definedName name="ExternalData_1" localSheetId="8" hidden="1">sheet0_업무추진비사용내역_2023_6월_!$A$1:$H$15</definedName>
-    <definedName name="ExternalData_1" localSheetId="8" hidden="1">sheet0_업무추진비사용내역_2023_6월_!$A$1:$H$15</definedName>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">sheet0_업무추진비사용내역_2023_7월_!$A$1:$H$8</definedName>
     <definedName name="ExternalData_1" localSheetId="9" hidden="1">sheet0_업무추진비사용내역_2023_7월_!$A$1:$H$8</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">sheet0_업무추진비사용내역_2023_8월_!$A$1:$H$7</definedName>
-    <definedName name="ExternalData_1" localSheetId="10" hidden="1">sheet0_업무추진비사용내역_2023_8월_!$A$1:$H$7</definedName>
-    <definedName name="ExternalData_1" localSheetId="11" hidden="1">sheet0_업무추진비사용내역_2023_9월_!$A$1:$H$8</definedName>
     <definedName name="ExternalData_1" localSheetId="11" hidden="1">sheet0_업무추진비사용내역_2023_9월_!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,8 +53,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -430,9 +417,6 @@
 (가맹점명)</t>
   </si>
   <si>
-    <t>사용일시</t>
-  </si>
-  <si>
     <t>사용일자</t>
   </si>
   <si>
@@ -1568,6 +1552,10 @@
   </si>
   <si>
     <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>사용시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1937,14 +1925,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCD688AC-BC70-4E85-A977-F52E3E94D7E9}" name="table0_업무추진비_사용내역_2023_12월_" displayName="table0_업무추진비_사용내역_2023_12월_" ref="A1:H19" totalsRowShown="0">
   <autoFilter ref="A1:H19" xr:uid="{CBC93EC9-BA5C-4343-89AD-C2FF98D7F6D7}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{F8AE7F29-5CAF-4760-B590-754F202F1D3A}" name="승인일" queryTableFieldId="1" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{EC8EF64C-66DE-4C92-BD83-87B67A1839D1}" name="승인시각" queryTableFieldId="2" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{0EAB1DF9-250D-4815-A824-C1840044C606}" name="가맹점명" queryTableFieldId="3" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{213C91F4-A22E-457C-A47A-896C3983D399}" name="사용내역" queryTableFieldId="4" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{BEE95794-2098-4626-A790-013A0980F302}" name="참여인원" queryTableFieldId="5" dataDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{1D3D5A9E-337A-4AEE-9154-8661A45877F8}" name="사용자" queryTableFieldId="6" dataDxfId="90"/>
-    <tableColumn id="15" xr3:uid="{762824CA-1C9F-4CB5-8C29-AC066556D31D}" name="승인금액" queryTableFieldId="7" dataDxfId="89"/>
-    <tableColumn id="16" xr3:uid="{82683BBF-9D2F-4335-B8FD-CBD5A9B19D91}" name="사용방법" queryTableFieldId="8" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{F8AE7F29-5CAF-4760-B590-754F202F1D3A}" name="승인일" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{EC8EF64C-66DE-4C92-BD83-87B67A1839D1}" name="승인시각" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{0EAB1DF9-250D-4815-A824-C1840044C606}" name="가맹점명" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{213C91F4-A22E-457C-A47A-896C3983D399}" name="사용내역" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{BEE95794-2098-4626-A790-013A0980F302}" name="참여인원" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{1D3D5A9E-337A-4AEE-9154-8661A45877F8}" name="사용자" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{762824CA-1C9F-4CB5-8C29-AC066556D31D}" name="승인금액" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{82683BBF-9D2F-4335-B8FD-CBD5A9B19D91}" name="사용방법" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1954,14 +1942,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B1B9340D-B718-45D6-8237-05891CDCB162}" name="table0_업무추진비사용내역_2023_7월_" displayName="table0_업무추진비사용내역_2023_7월_" ref="A1:H8" totalsRowShown="0">
   <autoFilter ref="A1:H8" xr:uid="{B5400667-9EE0-4262-846A-CAA84DD51C35}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{AD4C0EBB-187F-4F49-A5EE-ACC618A95C65}" name="사용자" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{73E16AB6-3BF0-4B37-AE68-1D3C9DBDCAC0}" name="사용일자" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{6197D8A8-40EA-4EA1-8857-AB4C492DE1DF}" name="사용일시" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{0B52A265-D46B-4452-A4AF-42BAC6132F4D}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{C8E1F6BA-1554-4E09-A7BD-F7B7CD24CD6B}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{CB7DE0C1-3358-4E74-AE4D-F845D25E7D07}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{39590BCC-1DC7-4FA4-988C-64DFE0F2574D}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{DE06E748-11AD-4D47-966B-CFAF9B019AEE}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{AD4C0EBB-187F-4F49-A5EE-ACC618A95C65}" name="사용자" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{73E16AB6-3BF0-4B37-AE68-1D3C9DBDCAC0}" name="사용일자" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{6197D8A8-40EA-4EA1-8857-AB4C492DE1DF}" name="사용시각" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{0B52A265-D46B-4452-A4AF-42BAC6132F4D}" name="사용장소_x000a_(가맹점명)" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{C8E1F6BA-1554-4E09-A7BD-F7B7CD24CD6B}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{CB7DE0C1-3358-4E74-AE4D-F845D25E7D07}" name="사용금액_x000a_(원)" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{39590BCC-1DC7-4FA4-988C-64DFE0F2574D}" name="인원_x000a_(명)" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{DE06E748-11AD-4D47-966B-CFAF9B019AEE}" name="사용_x000a_방법" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1971,14 +1959,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{132EA261-CF3E-4446-BA97-7846FFDA1C53}" name="table0_업무추진비사용내역_2023_8월_" displayName="table0_업무추진비사용내역_2023_8월_" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{E750BA17-1C9C-4E8A-A006-8F06394B3DF1}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{590676E7-7049-4B3D-8B8C-8FCF410AEA10}" name="사용자" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{56084C8C-136C-45E9-8833-444C82030996}" name="사용일자" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{6A8B3AD4-3FF4-4651-9951-7EF567FBFAD0}" name="사용일시" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{11C35154-EF8B-4447-AB34-9F6D89C6EDC4}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{3A60EDFD-599F-4760-9E02-50B9B1F6B2E5}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{A852DAFF-7F79-4784-B694-99C2565F89F8}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{EE00576E-C5B4-428C-816B-9FC464DCE118}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{85278620-9FC2-4BDC-B23C-24B8F35B2808}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{590676E7-7049-4B3D-8B8C-8FCF410AEA10}" name="사용자" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{56084C8C-136C-45E9-8833-444C82030996}" name="사용일자" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{6A8B3AD4-3FF4-4651-9951-7EF567FBFAD0}" name="사용시각" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{11C35154-EF8B-4447-AB34-9F6D89C6EDC4}" name="사용장소_x000a_(가맹점명)" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{3A60EDFD-599F-4760-9E02-50B9B1F6B2E5}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{A852DAFF-7F79-4784-B694-99C2565F89F8}" name="사용금액_x000a_(원)" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{EE00576E-C5B4-428C-816B-9FC464DCE118}" name="인원_x000a_(명)" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{85278620-9FC2-4BDC-B23C-24B8F35B2808}" name="사용_x000a_방법" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1988,14 +1976,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{F262B1E5-6981-4533-96F5-0D0975BA7969}" name="table0_업무추진비사용내역_2023_9월_" displayName="table0_업무추진비사용내역_2023_9월_" ref="A1:H8" totalsRowShown="0">
   <autoFilter ref="A1:H8" xr:uid="{1C9A9E40-9502-46A6-89C1-A5F578217BD3}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{69A76E55-3771-4E47-9DE6-BACDD7296921}" name="사용자" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{85D3850D-34A9-42AE-9921-3CAAC41BF9AF}" name="사용일자" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{8295E5EF-630D-48E0-AE26-5D6CAF83A2DD}" name="사용일시" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{BB038191-3536-48F5-BF8C-5BFA4529D153}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{C2F78711-4E21-4CAE-A21D-0A5F82DCBB2C}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7E2B361E-265F-4E49-9700-BD86B204283B}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{B7773F8E-73A7-4A74-B913-4AF83FEA7D55}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{76B57900-C901-45D3-866A-49F154B34655}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{69A76E55-3771-4E47-9DE6-BACDD7296921}" name="사용자" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{85D3850D-34A9-42AE-9921-3CAAC41BF9AF}" name="사용일자" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{8295E5EF-630D-48E0-AE26-5D6CAF83A2DD}" name="사용시각" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{BB038191-3536-48F5-BF8C-5BFA4529D153}" name="사용장소_x000a_(가맹점명)" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{C2F78711-4E21-4CAE-A21D-0A5F82DCBB2C}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7E2B361E-265F-4E49-9700-BD86B204283B}" name="사용금액_x000a_(원)" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{B7773F8E-73A7-4A74-B913-4AF83FEA7D55}" name="인원_x000a_(명)" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{76B57900-C901-45D3-866A-49F154B34655}" name="사용_x000a_방법" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2005,14 +1993,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7328EA09-1B87-43AD-A86A-E89AE8AB6431}" name="table0_업무추진비사용내역_2023_10월_" displayName="table0_업무추진비사용내역_2023_10월_" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{B3FB6D8E-E397-4E18-8FDB-7394C6F92F96}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{69935A40-C2C9-4276-806E-0D2BF548AB23}" name="사용자" queryTableFieldId="1" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{C6F74C86-1D1D-4606-B48C-E91DA10A9A78}" name="사용일자" queryTableFieldId="2" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{D331C593-5F3D-47A7-A4D4-8B6CE1BF60F7}" name="사용일시" queryTableFieldId="3" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{748FDF20-7073-4883-9B6E-E38C56658FC5}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{7A84F960-A10E-4725-AA74-9FA72A9399EB}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{795BAC9E-3EA9-4BA4-BE9E-0A8E12A4C3F7}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{F5CC53C7-9619-472D-9036-4B0CE00BCB69}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{80C37EBC-30C3-4C93-84AF-A983B034B8FC}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{69935A40-C2C9-4276-806E-0D2BF548AB23}" name="사용자" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{C6F74C86-1D1D-4606-B48C-E91DA10A9A78}" name="사용일자" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{D331C593-5F3D-47A7-A4D4-8B6CE1BF60F7}" name="사용시각" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{748FDF20-7073-4883-9B6E-E38C56658FC5}" name="사용장소_x000a_(가맹점명)" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{7A84F960-A10E-4725-AA74-9FA72A9399EB}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="83"/>
+    <tableColumn id="14" xr3:uid="{795BAC9E-3EA9-4BA4-BE9E-0A8E12A4C3F7}" name="사용금액_x000a_(원)" dataDxfId="82"/>
+    <tableColumn id="15" xr3:uid="{F5CC53C7-9619-472D-9036-4B0CE00BCB69}" name="인원_x000a_(명)" dataDxfId="81"/>
+    <tableColumn id="16" xr3:uid="{80C37EBC-30C3-4C93-84AF-A983B034B8FC}" name="사용_x000a_방법" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2022,14 +2010,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D3361EE-E50B-4423-9B89-33E91F5BA529}" name="table0_업무추진비사용내역_2023_11월_" displayName="table0_업무추진비사용내역_2023_11월_" ref="A1:H15" totalsRowShown="0">
   <autoFilter ref="A1:H15" xr:uid="{BB703C31-038C-46B6-B1DE-8D3499666600}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{530F45EC-4047-4FF9-94E3-010A38CBF332}" name="사용자" queryTableFieldId="1" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{2E5C9E38-A018-4860-989A-4BDCE1BE474F}" name="사용일자" queryTableFieldId="2" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{89DAA2C8-31A5-44B4-A33F-8233D9FA2151}" name="사용일시" queryTableFieldId="3" dataDxfId="77"/>
-    <tableColumn id="12" xr3:uid="{148B9CEE-1F5F-4B48-A851-7A1C5A73B4D6}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="76"/>
-    <tableColumn id="13" xr3:uid="{A4E28B13-8C0B-4ACC-B9A3-A6AADB0EB871}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{98064B24-8DAA-48AB-BB27-ABBEC93E1E0C}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="74"/>
-    <tableColumn id="15" xr3:uid="{06A310B7-B903-4D6D-877B-F5B2254CEE4C}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="73"/>
-    <tableColumn id="16" xr3:uid="{C3D47F29-A247-4C94-AED9-A2B5B73689A3}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{530F45EC-4047-4FF9-94E3-010A38CBF332}" name="사용자" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{2E5C9E38-A018-4860-989A-4BDCE1BE474F}" name="사용일자" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{89DAA2C8-31A5-44B4-A33F-8233D9FA2151}" name="사용시각" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{148B9CEE-1F5F-4B48-A851-7A1C5A73B4D6}" name="사용장소_x000a_(가맹점명)" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{A4E28B13-8C0B-4ACC-B9A3-A6AADB0EB871}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{98064B24-8DAA-48AB-BB27-ABBEC93E1E0C}" name="사용금액_x000a_(원)" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{06A310B7-B903-4D6D-877B-F5B2254CEE4C}" name="인원_x000a_(명)" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{C3D47F29-A247-4C94-AED9-A2B5B73689A3}" name="사용_x000a_방법" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2039,14 +2027,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{409051A4-9C6D-42D6-9A0D-88910A623842}" name="table0_업무추진비사용내역_2023_1월_" displayName="table0_업무추진비사용내역_2023_1월_" ref="A1:H17" totalsRowShown="0">
   <autoFilter ref="A1:H17" xr:uid="{B91F652F-3B9A-46AD-9765-C6EFB39F580A}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{A2C71FDE-51CA-44AB-83F7-9F9932634D79}" name="사용자" queryTableFieldId="1" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{FF9A64F6-05FB-4B17-B4C3-A805239807C1}" name="사용일자" queryTableFieldId="2" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{1C7A846C-2F98-41F1-917C-859F780D5D1F}" name="사용일시" queryTableFieldId="3" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{8DF7B008-3958-4B1D-AA3D-D1FBBABD4E44}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{C74F666D-BAFD-47D8-9EAF-571D2E9BB405}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{0EF9121C-C284-4B25-A6E0-0D448F4665D5}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{9D37FA66-A669-47EC-93E8-3D665701B416}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{3EEAFE96-F866-4417-946B-CED050FC1BA6}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{A2C71FDE-51CA-44AB-83F7-9F9932634D79}" name="사용자" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{FF9A64F6-05FB-4B17-B4C3-A805239807C1}" name="사용일자" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{1C7A846C-2F98-41F1-917C-859F780D5D1F}" name="사용시각" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{8DF7B008-3958-4B1D-AA3D-D1FBBABD4E44}" name="사용장소_x000a_(가맹점명)" dataDxfId="68"/>
+    <tableColumn id="13" xr3:uid="{C74F666D-BAFD-47D8-9EAF-571D2E9BB405}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{0EF9121C-C284-4B25-A6E0-0D448F4665D5}" name="사용금액_x000a_(원)" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{9D37FA66-A669-47EC-93E8-3D665701B416}" name="인원_x000a_(명)" dataDxfId="65"/>
+    <tableColumn id="16" xr3:uid="{3EEAFE96-F866-4417-946B-CED050FC1BA6}" name="사용_x000a_방법" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2056,14 +2044,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{056007DF-41E8-4D99-A8D2-CEDF0E2769D8}" name="table0_업무추진비사용내역_2023_2월_" displayName="table0_업무추진비사용내역_2023_2월_" ref="A1:H9" totalsRowShown="0">
   <autoFilter ref="A1:H9" xr:uid="{7FFA4DCA-7CDD-4B94-9889-19551897E9CA}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{8F5D3B2B-DAF5-47A2-97D8-0A55EB13EB22}" name="사용자" queryTableFieldId="1" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{21F1FEF9-EE68-4C14-B624-D2E4178FC3E2}" name="사용일자" queryTableFieldId="2" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{224DC697-90CE-4888-AEF0-BE5184C49098}" name="사용일시" queryTableFieldId="3" dataDxfId="61"/>
-    <tableColumn id="12" xr3:uid="{14BCE379-FCBA-4146-8FF7-2A02CEB6D7E7}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{1BFD8438-0A9E-4576-9010-89A8C1C6F805}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{C22FEE33-1CD4-40CE-856C-32A5DE183F7D}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{FF3A6A18-F84D-4C72-ADC5-2047A2B406BC}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="57"/>
-    <tableColumn id="16" xr3:uid="{3E0F5AD7-7EAB-4EBE-99E6-DCE23681B5C8}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{8F5D3B2B-DAF5-47A2-97D8-0A55EB13EB22}" name="사용자" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{21F1FEF9-EE68-4C14-B624-D2E4178FC3E2}" name="사용일자" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{224DC697-90CE-4888-AEF0-BE5184C49098}" name="사용시각" dataDxfId="61"/>
+    <tableColumn id="12" xr3:uid="{14BCE379-FCBA-4146-8FF7-2A02CEB6D7E7}" name="사용장소_x000a_(가맹점명)" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{1BFD8438-0A9E-4576-9010-89A8C1C6F805}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{C22FEE33-1CD4-40CE-856C-32A5DE183F7D}" name="사용금액_x000a_(원)" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{FF3A6A18-F84D-4C72-ADC5-2047A2B406BC}" name="인원_x000a_(명)" dataDxfId="57"/>
+    <tableColumn id="16" xr3:uid="{3E0F5AD7-7EAB-4EBE-99E6-DCE23681B5C8}" name="사용_x000a_방법" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2073,14 +2061,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F466529A-44C0-4FFB-A7CF-E5D195C1E723}" name="table0_업무추진비사용내역_2023_3월_" displayName="table0_업무추진비사용내역_2023_3월_" ref="A1:H10" totalsRowShown="0">
   <autoFilter ref="A1:H10" xr:uid="{CD4C6C7C-462F-4DE5-BE57-D63527234041}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{B28A0DDD-8AF1-4BDE-A56E-679493DDE5EF}" name="사용자" queryTableFieldId="1" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{AB2AC8A3-88B1-4E8E-B8E3-1DD746DF3162}" name="사용일자" queryTableFieldId="2" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{B7F46874-BD25-49C2-AC6D-6062CD52CE66}" name="사용일시" queryTableFieldId="3" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{08A51B8D-911A-4506-A7D5-5FF452BF0A32}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{E3BDCE31-FDF2-4CC2-9A2A-238AE02FBA41}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{44E55D37-864A-4F1D-B663-748EE75FC147}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{57D1D510-1E8B-495E-A828-43EBFFF46E0C}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{41D27207-8CE6-482D-B2D0-33EB2983DE5D}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{B28A0DDD-8AF1-4BDE-A56E-679493DDE5EF}" name="사용자" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{AB2AC8A3-88B1-4E8E-B8E3-1DD746DF3162}" name="사용일자" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{B7F46874-BD25-49C2-AC6D-6062CD52CE66}" name="사용시각" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{08A51B8D-911A-4506-A7D5-5FF452BF0A32}" name="사용장소_x000a_(가맹점명)" dataDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{E3BDCE31-FDF2-4CC2-9A2A-238AE02FBA41}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{44E55D37-864A-4F1D-B663-748EE75FC147}" name="사용금액_x000a_(원)" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{57D1D510-1E8B-495E-A828-43EBFFF46E0C}" name="인원_x000a_(명)" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{41D27207-8CE6-482D-B2D0-33EB2983DE5D}" name="사용_x000a_방법" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2090,14 +2078,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D4DA7347-15AD-41AC-9852-2C679156CEFB}" name="table0_업무추진비사용내역_2023_4월_" displayName="table0_업무추진비사용내역_2023_4월_" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{B0566E29-9058-4D02-ADB3-DA07564213BF}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{F2FE3548-C577-4CA3-82C3-DA0378980596}" name="사용자" queryTableFieldId="1" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{FBD47EF3-DDBA-493E-AA05-A1F995067F5B}" name="사용일자" queryTableFieldId="2" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{D288EB2D-00A9-4B81-A9A6-E047D66B00EA}" name="사용일시" queryTableFieldId="3" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{7B9E9B82-E4F7-4046-AFEB-F8FCD8523D9D}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{FBEB9875-245D-4C4D-BEFE-6D91B28AFC56}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{00B82854-800C-4A4C-B074-09C86BE7F40A}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{5559C006-F6D5-4C45-BB5A-B0EA5B578BBB}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{4E96989F-9A94-4DCB-A17C-9AEA96968AE4}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{F2FE3548-C577-4CA3-82C3-DA0378980596}" name="사용자" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{FBD47EF3-DDBA-493E-AA05-A1F995067F5B}" name="사용일자" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{D288EB2D-00A9-4B81-A9A6-E047D66B00EA}" name="사용시각" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{7B9E9B82-E4F7-4046-AFEB-F8FCD8523D9D}" name="사용장소_x000a_(가맹점명)" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{FBEB9875-245D-4C4D-BEFE-6D91B28AFC56}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{00B82854-800C-4A4C-B074-09C86BE7F40A}" name="사용금액_x000a_(원)" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{5559C006-F6D5-4C45-BB5A-B0EA5B578BBB}" name="인원_x000a_(명)" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{4E96989F-9A94-4DCB-A17C-9AEA96968AE4}" name="사용_x000a_방법" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2107,14 +2095,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B8ABEE9A-197F-445B-893E-C92E62573D46}" name="table0_업무추진비사용내역_2023_5월_" displayName="table0_업무추진비사용내역_2023_5월_" ref="A1:H12" totalsRowShown="0">
   <autoFilter ref="A1:H12" xr:uid="{340665AD-5C5F-48DC-A145-A1B9A7E92DCF}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{6F64365E-64D0-40CE-B87E-DC242A1E0745}" name="사용자" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{1B0826F2-0083-4D89-A220-BB3137EE6503}" name="사용일자" queryTableFieldId="2" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{F8B4C361-91C4-4B4E-822A-C7C4E1D982BB}" name="사용일시" queryTableFieldId="3" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{4888DD85-A2C8-4CFF-8C1C-B50E22A506CF}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{D71FF600-201B-4788-9B90-92FAABDF50D3}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{A6A3D5F6-78BC-4D11-B595-A4B2AFC27F92}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{63D28A45-22A4-45BB-966A-3A993498831D}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{BA239187-15E8-42AD-A91C-46D409F10A94}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{6F64365E-64D0-40CE-B87E-DC242A1E0745}" name="사용자" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{1B0826F2-0083-4D89-A220-BB3137EE6503}" name="사용일자" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{F8B4C361-91C4-4B4E-822A-C7C4E1D982BB}" name="사용시각" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{4888DD85-A2C8-4CFF-8C1C-B50E22A506CF}" name="사용장소_x000a_(가맹점명)" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{D71FF600-201B-4788-9B90-92FAABDF50D3}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{A6A3D5F6-78BC-4D11-B595-A4B2AFC27F92}" name="사용금액_x000a_(원)" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{63D28A45-22A4-45BB-966A-3A993498831D}" name="인원_x000a_(명)" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{BA239187-15E8-42AD-A91C-46D409F10A94}" name="사용_x000a_방법" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2124,14 +2112,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C9D2D62B-FD7A-4A44-8120-8B0DA508B162}" name="table0_업무추진비사용내역_2023_6월_" displayName="table0_업무추진비사용내역_2023_6월_" ref="A1:H15" totalsRowShown="0">
   <autoFilter ref="A1:H15" xr:uid="{102B2B5C-052B-4ACD-A5B7-F13F2EC9335F}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{863DD1F5-A288-431F-A43C-D950D90EEA5B}" name="사용자" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{7B628DCA-8FA1-4ECF-AE9D-7E5759D9C73D}" name="사용일자" queryTableFieldId="2" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{64584B6A-B634-47C9-8CAF-23380789596F}" name="사용일시" queryTableFieldId="3" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{75794E3C-0425-4E39-BFAE-F7F5CDBB22A1}" name="사용장소_x000a_(가맹점명)" queryTableFieldId="4" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{5393FFD6-6F92-4D30-9CAD-7F5887FAF970}" name="사용목적(내역)_x000a_* 사용대상 포함" queryTableFieldId="5" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{26AC1170-DCEF-45B6-86EC-564479FDA916}" name="사용금액_x000a_(원)" queryTableFieldId="6" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{85254810-B195-49DC-8AEC-2FDE562BA492}" name="인원_x000a_(명)" queryTableFieldId="7" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{DC80D0CD-06DA-469E-A18E-8E1FA0187607}" name="사용_x000a_방법" queryTableFieldId="8" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{863DD1F5-A288-431F-A43C-D950D90EEA5B}" name="사용자" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{7B628DCA-8FA1-4ECF-AE9D-7E5759D9C73D}" name="사용일자" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{64584B6A-B634-47C9-8CAF-23380789596F}" name="사용시각" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{75794E3C-0425-4E39-BFAE-F7F5CDBB22A1}" name="사용장소_x000a_(가맹점명)" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{5393FFD6-6F92-4D30-9CAD-7F5887FAF970}" name="사용목적(내역)_x000a_* 사용대상 포함" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{26AC1170-DCEF-45B6-86EC-564479FDA916}" name="사용금액_x000a_(원)" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{85254810-B195-49DC-8AEC-2FDE562BA492}" name="인원_x000a_(명)" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{DC80D0CD-06DA-469E-A18E-8E1FA0187607}" name="사용_x000a_방법" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2456,21 +2444,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABEC823-43C7-47F7-A9C7-4AE2FD824BA8}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="7" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2496,7 +2484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2522,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -2548,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -2574,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2600,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2626,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2704,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -2730,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2756,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2808,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2860,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2886,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2912,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2977,30 +2965,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561D5D1B-84DF-469E-AACA-4FE065763F04}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -3018,24 +3008,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -3044,73 +3034,73 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>42</v>
@@ -3122,24 +3112,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
@@ -3148,24 +3138,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>38</v>
@@ -3174,30 +3164,30 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3214,30 +3204,30 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -3255,21 +3245,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>105</v>
@@ -3281,21 +3271,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>56</v>
@@ -3307,21 +3297,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>56</v>
@@ -3333,73 +3323,73 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>105</v>
@@ -3424,32 +3414,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A760125-AC19-4D2C-ACB2-6F5905967365}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -3467,24 +3457,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -3493,50 +3483,50 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
@@ -3545,24 +3535,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>38</v>
@@ -3571,24 +3561,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -3597,24 +3587,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -3623,27 +3613,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>79</v>
@@ -3662,30 +3652,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3911E7D2-82F1-4CCB-BEFB-686978B48AEF}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -3703,7 +3695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -3729,7 +3721,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -3755,7 +3747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -3781,7 +3773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -3807,7 +3799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -3833,7 +3825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -3873,31 +3865,31 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -3915,24 +3907,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>28</v>
@@ -3941,47 +3933,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>56</v>
@@ -3993,18 +3985,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>99</v>
@@ -4019,21 +4011,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>61</v>
@@ -4045,24 +4037,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -4071,21 +4063,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>42</v>
@@ -4097,24 +4089,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>86</v>
@@ -4123,24 +4115,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -4149,24 +4141,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>28</v>
@@ -4175,48 +4167,48 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4232,30 +4224,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CD53C2-6FF7-4434-AA29-9BA03D7A1BC8}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -4273,50 +4267,50 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -4325,24 +4319,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -4351,102 +4345,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -4455,47 +4449,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>67</v>
@@ -4507,50 +4501,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>38</v>
@@ -4559,41 +4553,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
@@ -4602,7 +4596,7 @@
         <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -4611,73 +4605,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>67</v>
@@ -4686,7 +4680,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4702,30 +4696,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69ECCC0-1533-47BA-BFE1-66C275C1F87A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -4743,102 +4739,102 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
@@ -4847,24 +4843,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>38</v>
@@ -4873,79 +4869,79 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>79</v>
@@ -4964,30 +4960,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0489E7A1-25E9-4E48-A958-26F1AFD45287}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -5005,24 +5003,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -5031,24 +5029,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -5057,24 +5055,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
@@ -5083,47 +5081,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -5135,24 +5133,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -5161,24 +5159,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>38</v>
@@ -5187,24 +5185,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -5213,24 +5211,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
@@ -5252,30 +5250,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AFBA2A-E692-4DEE-9BA3-E23033319F73}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -5293,24 +5293,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>86</v>
@@ -5319,24 +5319,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>38</v>
@@ -5345,24 +5345,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -5371,24 +5371,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
@@ -5397,15 +5397,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -5414,7 +5414,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -5423,24 +5423,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>46</v>
@@ -5449,24 +5449,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>38</v>
@@ -5475,50 +5475,50 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -5527,24 +5527,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>80</v>
@@ -5553,24 +5553,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>86</v>
@@ -5579,24 +5579,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -5618,29 +5618,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4622037B-DB6C-448D-A8BF-31344D690A6A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -5658,24 +5660,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -5684,24 +5686,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -5710,50 +5712,50 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
@@ -5762,24 +5764,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>38</v>
@@ -5788,24 +5790,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>28</v>
@@ -5814,76 +5816,76 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -5892,56 +5894,56 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5957,30 +5959,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58424777-D154-41FA-AAC4-CA68AAC9760C}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>114</v>
@@ -5998,24 +6002,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>38</v>
@@ -6024,21 +6028,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
@@ -6050,24 +6054,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>80</v>
@@ -6076,24 +6080,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>38</v>
@@ -6102,24 +6106,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -6128,24 +6132,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -6154,47 +6158,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>59</v>
@@ -6206,24 +6210,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
@@ -6232,24 +6236,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>3</v>
@@ -6258,24 +6262,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -6284,24 +6288,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -6310,53 +6314,53 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>79</v>
